--- a/pkg/excels/templates/Анализ Остатка Материалов.xlsx
+++ b/pkg/excels/templates/Анализ Остатка Материалов.xlsx
@@ -333,16 +333,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -357,9 +354,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -707,693 +701,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="9" customWidth="1"/>
-    <col min="8" max="12" width="14.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="7" customWidth="1"/>
+    <col min="8" max="10" width="14.5703125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="14.5703125" style="2" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="5"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G1048576">
